--- a/test_files/mcE61_PD14_Figueres_Proteins.xlsx
+++ b/test_files/mcE61_PD14_Figueres_Proteins.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000"/>
+    <workbookView xWindow="1005" yWindow="1005" windowWidth="15000" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -870,9 +871,6 @@
     <t>P04178</t>
   </si>
   <si>
-    <t>P04745</t>
-  </si>
-  <si>
     <t>P04746</t>
   </si>
   <si>
@@ -1660,16 +1658,19 @@
   </si>
   <si>
     <t>calc. pI</t>
+  </si>
+  <si>
+    <t>P0DUB6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1749,32 +1750,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" xfId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" xfId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="2">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="2">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="164">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1843,6 +1846,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2130,16 +2138,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -2151,7 +2160,7 @@
     <col min="10" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>107</v>
@@ -2183,12 +2192,12 @@
         <v>198</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
@@ -2215,24 +2224,24 @@
         <v>615</v>
       </c>
       <c r="J2" s="6">
-        <v>69.87194734466</v>
+        <v>69.871947344660001</v>
       </c>
       <c r="K2" s="3">
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="3">
-        <v>854.059499502182</v>
+        <v>854.05949950218201</v>
       </c>
       <c r="D3" s="4">
-        <v>71.04</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -2256,18 +2265,18 @@
         <v>7.04931640625</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>285</v>
+        <v>548</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="3">
-        <v>798.208094596863</v>
+        <v>798.20809459686302</v>
       </c>
       <c r="D4" s="4">
-        <v>75.15</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -2285,24 +2294,24 @@
         <v>511</v>
       </c>
       <c r="J4" s="6">
-        <v>57.7309150246601</v>
+        <v>57.730915024660099</v>
       </c>
       <c r="K4" s="3">
         <v>6.93212890625</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="3">
-        <v>687.301427364349</v>
+        <v>687.30142736434902</v>
       </c>
       <c r="D5" s="4">
-        <v>75.15</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -2320,13 +2329,13 @@
         <v>511</v>
       </c>
       <c r="J5" s="6">
-        <v>57.6730113146601</v>
+        <v>57.673011314660101</v>
       </c>
       <c r="K5" s="3">
         <v>7.09326171875</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>254</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>237</v>
       </c>
       <c r="C6" s="3">
-        <v>421.996700763702</v>
+        <v>421.99670076370199</v>
       </c>
       <c r="D6" s="4">
         <v>54.15</v>
@@ -2355,13 +2364,13 @@
         <v>386</v>
       </c>
       <c r="J6" s="6">
-        <v>42.8535052046601</v>
+        <v>42.853505204660102</v>
       </c>
       <c r="K6" s="3">
         <v>5.28759765625</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>277</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="3">
-        <v>418.101455688477</v>
+        <v>418.10145568847702</v>
       </c>
       <c r="D7" s="4">
         <v>62.23</v>
@@ -2390,13 +2399,13 @@
         <v>609</v>
       </c>
       <c r="J7" s="6">
-        <v>69.32149882466</v>
+        <v>69.321498824659997</v>
       </c>
       <c r="K7" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>227</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="3">
-        <v>246.639783620834</v>
+        <v>246.63978362083401</v>
       </c>
       <c r="D8" s="4">
         <v>28.11</v>
@@ -2431,7 +2440,7 @@
         <v>5.50341796875</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>252</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>5.59228515625</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>280</v>
       </c>
@@ -2501,9 +2510,9 @@
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -2530,13 +2539,13 @@
         <v>607</v>
       </c>
       <c r="J11" s="6">
-        <v>69.64705372466</v>
+        <v>69.647053724659997</v>
       </c>
       <c r="K11" s="3">
         <v>6.49365234375</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>278</v>
       </c>
@@ -2565,21 +2574,21 @@
         <v>607</v>
       </c>
       <c r="J12" s="6">
-        <v>69.24844375466</v>
+        <v>69.248443754660002</v>
       </c>
       <c r="K12" s="3">
         <v>6.17626953125</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="3">
-        <v>151.454102277756</v>
+        <v>151.45410227775599</v>
       </c>
       <c r="D13" s="4">
         <v>15.84</v>
@@ -2606,15 +2615,15 @@
         <v>5.33837890625</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3">
-        <v>124.458739995956</v>
+        <v>124.45873999595599</v>
       </c>
       <c r="D14" s="4">
         <v>38.06</v>
@@ -2635,15 +2644,15 @@
         <v>607</v>
       </c>
       <c r="J14" s="6">
-        <v>69.14334366466</v>
+        <v>69.143343664659994</v>
       </c>
       <c r="K14" s="3">
         <v>6.15087890625</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>91</v>
@@ -2676,7 +2685,7 @@
         <v>6.60986328125</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>265</v>
       </c>
@@ -2705,18 +2714,18 @@
         <v>107</v>
       </c>
       <c r="J16" s="6">
-        <v>11.75776875466</v>
+        <v>11.757768754660001</v>
       </c>
       <c r="K16" s="3">
         <v>6.52197265625</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C17" s="3">
         <v>104.159181594849</v>
@@ -2740,21 +2749,21 @@
         <v>497</v>
       </c>
       <c r="J17" s="6">
-        <v>55.8628526646601</v>
+        <v>55.862852664660103</v>
       </c>
       <c r="K17" s="3">
         <v>7.00537109375</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C18" s="3">
-        <v>94.7695062160492</v>
+        <v>94.769506216049194</v>
       </c>
       <c r="D18" s="4">
         <v>47.07</v>
@@ -2775,13 +2784,13 @@
         <v>376</v>
       </c>
       <c r="J18" s="6">
-        <v>42.59406200466</v>
+        <v>42.594062004660003</v>
       </c>
       <c r="K18" s="3">
         <v>5.27490234375</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>270</v>
       </c>
@@ -2789,7 +2798,7 @@
         <v>175</v>
       </c>
       <c r="C19" s="3">
-        <v>92.4284687042236</v>
+        <v>92.428468704223604</v>
       </c>
       <c r="D19" s="4">
         <v>29.46</v>
@@ -2810,13 +2819,13 @@
         <v>353</v>
       </c>
       <c r="J19" s="6">
-        <v>37.63064002466</v>
+        <v>37.630640024660003</v>
       </c>
       <c r="K19" s="3">
         <v>6.50732421875</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>246</v>
       </c>
@@ -2824,7 +2833,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3">
-        <v>92.0616087913513</v>
+        <v>92.061608791351304</v>
       </c>
       <c r="D20" s="4">
         <v>15.66</v>
@@ -2845,21 +2854,21 @@
         <v>511</v>
       </c>
       <c r="J20" s="6">
-        <v>57.6068633246601</v>
+        <v>57.606863324660097</v>
       </c>
       <c r="K20" s="3">
         <v>6.96142578125</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="3">
-        <v>86.0803823471069</v>
+        <v>86.080382347106905</v>
       </c>
       <c r="D21" s="4">
         <v>44.86</v>
@@ -2880,21 +2889,21 @@
         <v>214</v>
       </c>
       <c r="J21" s="6">
-        <v>23.36442023466</v>
+        <v>23.364420234659999</v>
       </c>
       <c r="K21" s="3">
         <v>7.16650390625</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C22" s="3">
-        <v>80.8720829486847</v>
+        <v>80.872082948684707</v>
       </c>
       <c r="D22" s="4">
         <v>44.63</v>
@@ -2921,18 +2930,18 @@
         <v>6.04931640625</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C23" s="3">
-        <v>80.8509223461151</v>
+        <v>80.850922346115098</v>
       </c>
       <c r="D23" s="4">
-        <v>39.02</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="E23" s="5">
         <v>7</v>
@@ -2950,21 +2959,21 @@
         <v>528</v>
       </c>
       <c r="J23" s="6">
-        <v>56.7764174946601</v>
+        <v>56.776417494660102</v>
       </c>
       <c r="K23" s="3">
         <v>5.85888671875</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="3">
-        <v>71.0556499958038</v>
+        <v>71.055649995803805</v>
       </c>
       <c r="D24" s="4">
         <v>10.43</v>
@@ -2985,21 +2994,21 @@
         <v>1304</v>
       </c>
       <c r="J24" s="6">
-        <v>149.27553941466</v>
+        <v>149.27553941465999</v>
       </c>
       <c r="K24" s="3">
         <v>6.29052734375</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C25" s="3">
-        <v>70.2698383331299</v>
+        <v>70.269838333129897</v>
       </c>
       <c r="D25" s="4">
         <v>40.89</v>
@@ -3020,15 +3029,15 @@
         <v>247</v>
       </c>
       <c r="J25" s="6">
-        <v>26.47103543466</v>
+        <v>26.471035434659999</v>
       </c>
       <c r="K25" s="3">
         <v>4.91943359375</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>54</v>
@@ -3061,15 +3070,15 @@
         <v>5.47802734375</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="3">
-        <v>63.5094368457794</v>
+        <v>63.509436845779398</v>
       </c>
       <c r="D27" s="4">
         <v>35.08</v>
@@ -3090,21 +3099,21 @@
         <v>419</v>
       </c>
       <c r="J27" s="6">
-        <v>47.11078190466</v>
+        <v>47.110781904660001</v>
       </c>
       <c r="K27" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C28" s="3">
-        <v>58.5118553638458</v>
+        <v>58.511855363845797</v>
       </c>
       <c r="D28" s="4">
         <v>52.61</v>
@@ -3131,15 +3140,15 @@
         <v>6.91748046875</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C29" s="3">
-        <v>58.2288069725037</v>
+        <v>58.228806972503698</v>
       </c>
       <c r="D29" s="4">
         <v>55.33</v>
@@ -3166,15 +3175,15 @@
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="3">
-        <v>58.1481206417084</v>
+        <v>58.148120641708402</v>
       </c>
       <c r="D30" s="4">
         <v>40</v>
@@ -3195,21 +3204,21 @@
         <v>270</v>
       </c>
       <c r="J30" s="6">
-        <v>29.24439386466</v>
+        <v>29.244393864660001</v>
       </c>
       <c r="K30" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C31" s="3">
-        <v>55.8807978630066</v>
+        <v>55.880797863006599</v>
       </c>
       <c r="D31" s="4">
         <v>20.97</v>
@@ -3236,15 +3245,15 @@
         <v>4.77978515625</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="3">
-        <v>53.7294335365295</v>
+        <v>53.729433536529498</v>
       </c>
       <c r="D32" s="4">
         <v>13.16</v>
@@ -3271,18 +3280,18 @@
         <v>6.23974609375</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C33" s="3">
-        <v>52.6355378627777</v>
+        <v>52.635537862777703</v>
       </c>
       <c r="D33" s="4">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3300,13 +3309,13 @@
         <v>5179</v>
       </c>
       <c r="J33" s="6">
-        <v>539.958365874683</v>
+        <v>539.95836587468295</v>
       </c>
       <c r="K33" s="3">
         <v>5.79541015625</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>222</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>146</v>
       </c>
       <c r="C34" s="3">
-        <v>49.6515429019928</v>
+        <v>49.651542901992798</v>
       </c>
       <c r="D34" s="4">
         <v>33.82</v>
@@ -3335,21 +3344,21 @@
         <v>340</v>
       </c>
       <c r="J34" s="6">
-        <v>36.29860081466</v>
+        <v>36.298600814659999</v>
       </c>
       <c r="K34" s="3">
         <v>8.79248046875</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C35" s="3">
-        <v>48.4746332168579</v>
+        <v>48.474633216857903</v>
       </c>
       <c r="D35" s="4">
         <v>46.37</v>
@@ -3370,21 +3379,21 @@
         <v>248</v>
       </c>
       <c r="J35" s="6">
-        <v>26.60378205466</v>
+        <v>26.603782054660002</v>
       </c>
       <c r="K35" s="3">
         <v>7.19580078125</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C36" s="3">
-        <v>47.7614095211029</v>
+        <v>47.761409521102898</v>
       </c>
       <c r="D36" s="4">
         <v>31.25</v>
@@ -3411,7 +3420,7 @@
         <v>6.25244140625</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>228</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="3">
-        <v>47.4514427185059</v>
+        <v>47.451442718505902</v>
       </c>
       <c r="D37" s="4">
         <v>11.83</v>
@@ -3446,15 +3455,15 @@
         <v>5.10986328125</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="3">
-        <v>46.9975824356079</v>
+        <v>46.997582435607903</v>
       </c>
       <c r="D38" s="4">
         <v>18.41</v>
@@ -3475,21 +3484,21 @@
         <v>766</v>
       </c>
       <c r="J38" s="6">
-        <v>88.2224876046601</v>
+        <v>88.222487604660103</v>
       </c>
       <c r="K38" s="3">
         <v>6.03662109375</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C39" s="3">
-        <v>44.7405335903168</v>
+        <v>44.740533590316801</v>
       </c>
       <c r="D39" s="4">
         <v>21.06</v>
@@ -3510,21 +3519,21 @@
         <v>698</v>
       </c>
       <c r="J39" s="6">
-        <v>77.0136334646601</v>
+        <v>77.013633464660103</v>
       </c>
       <c r="K39" s="3">
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C40" s="3">
-        <v>44.0253508090973</v>
+        <v>44.025350809097297</v>
       </c>
       <c r="D40" s="4">
         <v>29.26</v>
@@ -3551,15 +3560,15 @@
         <v>7.72314453125</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C41" s="3">
-        <v>43.8756358623505</v>
+        <v>43.875635862350499</v>
       </c>
       <c r="D41" s="4">
         <v>37.1</v>
@@ -3580,21 +3589,21 @@
         <v>248</v>
       </c>
       <c r="J41" s="6">
-        <v>26.71288245466</v>
+        <v>26.712882454660001</v>
       </c>
       <c r="K41" s="3">
         <v>7.45947265625</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="3">
-        <v>42.4092063903809</v>
+        <v>42.409206390380902</v>
       </c>
       <c r="D42" s="4">
         <v>50.37</v>
@@ -3615,15 +3624,15 @@
         <v>270</v>
       </c>
       <c r="J42" s="6">
-        <v>29.46960124466</v>
+        <v>29.469601244660002</v>
       </c>
       <c r="K42" s="3">
         <v>6.90283203125</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>189</v>
@@ -3650,21 +3659,21 @@
         <v>623</v>
       </c>
       <c r="J43" s="6">
-        <v>62.02681761466</v>
+        <v>62.026817614659997</v>
       </c>
       <c r="K43" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C44" s="3">
-        <v>39.4334580898285</v>
+        <v>39.433458089828498</v>
       </c>
       <c r="D44" s="4">
         <v>8.76</v>
@@ -3691,18 +3700,18 @@
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="3">
-        <v>39.3703577518463</v>
+        <v>39.370357751846299</v>
       </c>
       <c r="D45" s="4">
-        <v>38.66</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="E45" s="5">
         <v>3</v>
@@ -3726,15 +3735,15 @@
         <v>8.45556640625</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="3">
-        <v>38.9834492206573</v>
+        <v>38.983449220657299</v>
       </c>
       <c r="D46" s="4">
         <v>29.26</v>
@@ -3755,13 +3764,13 @@
         <v>434</v>
       </c>
       <c r="J46" s="6">
-        <v>47.10043245466</v>
+        <v>47.100432454660002</v>
       </c>
       <c r="K46" s="3">
         <v>7.95751953125</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -3790,21 +3799,21 @@
         <v>637</v>
       </c>
       <c r="J47" s="6">
-        <v>65.44974921466</v>
+        <v>65.449749214660002</v>
       </c>
       <c r="K47" s="3">
         <v>7.81103515625</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C48" s="3">
-        <v>37.9895288944244</v>
+        <v>37.989528894424403</v>
       </c>
       <c r="D48" s="4">
         <v>46.03</v>
@@ -3825,24 +3834,24 @@
         <v>63</v>
       </c>
       <c r="J48" s="6">
-        <v>7.19886334466</v>
+        <v>7.1988633446600003</v>
       </c>
       <c r="K48" s="3">
         <v>5.37646484375</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="3">
-        <v>37.9027781486511</v>
+        <v>37.902778148651102</v>
       </c>
       <c r="D49" s="4">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="E49" s="5">
         <v>2</v>
@@ -3860,21 +3869,21 @@
         <v>411</v>
       </c>
       <c r="J49" s="6">
-        <v>45.64499214466</v>
+        <v>45.644992144660002</v>
       </c>
       <c r="K49" s="3">
         <v>6.15087890625</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C50" s="3">
-        <v>37.6299095153809</v>
+        <v>37.629909515380902</v>
       </c>
       <c r="D50" s="4">
         <v>15.38</v>
@@ -3895,15 +3904,15 @@
         <v>455</v>
       </c>
       <c r="J50" s="6">
-        <v>48.90321775466</v>
+        <v>48.903217754659998</v>
       </c>
       <c r="K50" s="3">
         <v>6.66845703125</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>87</v>
@@ -3912,7 +3921,7 @@
         <v>36.1389451026917</v>
       </c>
       <c r="D51" s="4">
-        <v>34.62</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -3930,21 +3939,21 @@
         <v>260</v>
       </c>
       <c r="J51" s="6">
-        <v>28.98926782466</v>
+        <v>28.989267824660001</v>
       </c>
       <c r="K51" s="3">
         <v>7.04931640625</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C52" s="3">
-        <v>35.5172910690308</v>
+        <v>35.517291069030797</v>
       </c>
       <c r="D52" s="4">
         <v>21.65</v>
@@ -3965,21 +3974,21 @@
         <v>231</v>
       </c>
       <c r="J52" s="6">
-        <v>24.39380627466</v>
+        <v>24.393806274660001</v>
       </c>
       <c r="K52" s="3">
         <v>7.18115234375</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C53" s="3">
-        <v>35.2587616443634</v>
+        <v>35.258761644363403</v>
       </c>
       <c r="D53" s="4">
         <v>11.68</v>
@@ -4000,13 +4009,13 @@
         <v>1019</v>
       </c>
       <c r="J53" s="6">
-        <v>112.86298549466</v>
+        <v>112.86298549465999</v>
       </c>
       <c r="K53" s="3">
         <v>5.03369140625</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>255</v>
       </c>
@@ -4014,7 +4023,7 @@
         <v>238</v>
       </c>
       <c r="C54" s="3">
-        <v>34.9874050617218</v>
+        <v>34.987405061721802</v>
       </c>
       <c r="D54" s="4">
         <v>25.52</v>
@@ -4035,21 +4044,21 @@
         <v>388</v>
       </c>
       <c r="J54" s="6">
-        <v>43.74374351466</v>
+        <v>43.743743514659997</v>
       </c>
       <c r="K54" s="3">
         <v>5.30029296875</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C55" s="3">
-        <v>34.3083157539368</v>
+        <v>34.308315753936803</v>
       </c>
       <c r="D55" s="4">
         <v>59.09</v>
@@ -4076,18 +4085,18 @@
         <v>6.59521484375</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C56" s="3">
         <v>33.5561873912811</v>
       </c>
       <c r="D56" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E56" s="5">
         <v>2</v>
@@ -4111,15 +4120,15 @@
         <v>6.35400390625</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="3">
-        <v>33.4045515060425</v>
+        <v>33.404551506042502</v>
       </c>
       <c r="D57" s="4">
         <v>15.13</v>
@@ -4140,24 +4149,24 @@
         <v>608</v>
       </c>
       <c r="J57" s="6">
-        <v>68.61494624466</v>
+        <v>68.614946244660004</v>
       </c>
       <c r="K57" s="3">
         <v>5.65576171875</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C58" s="3">
-        <v>32.3046176433563</v>
+        <v>32.304617643356302</v>
       </c>
       <c r="D58" s="4">
-        <v>38.66</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="E58" s="5">
         <v>6</v>
@@ -4175,21 +4184,21 @@
         <v>269</v>
       </c>
       <c r="J58" s="6">
-        <v>26.68241059466</v>
+        <v>26.682410594659999</v>
       </c>
       <c r="K58" s="3">
         <v>9.30517578125</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="3">
-        <v>32.2469110488892</v>
+        <v>32.246911048889203</v>
       </c>
       <c r="D59" s="4">
         <v>15.13</v>
@@ -4210,21 +4219,21 @@
         <v>608</v>
       </c>
       <c r="J59" s="6">
-        <v>68.5599519046601</v>
+        <v>68.559951904660096</v>
       </c>
       <c r="K59" s="3">
         <v>5.69384765625</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="3">
-        <v>32.0620675086975</v>
+        <v>32.062067508697503</v>
       </c>
       <c r="D60" s="4">
         <v>13.82</v>
@@ -4245,24 +4254,24 @@
         <v>702</v>
       </c>
       <c r="J60" s="6">
-        <v>76.7472299646601</v>
+        <v>76.747229964660093</v>
       </c>
       <c r="K60" s="3">
         <v>5.92236328125</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C61" s="3">
-        <v>30.4024298191071</v>
+        <v>30.402429819107098</v>
       </c>
       <c r="D61" s="4">
-        <v>17.15</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -4280,24 +4289,24 @@
         <v>764</v>
       </c>
       <c r="J61" s="6">
-        <v>83.2316563046601</v>
+        <v>83.231656304660106</v>
       </c>
       <c r="K61" s="3">
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C62" s="3">
         <v>28.369432926178</v>
       </c>
       <c r="D62" s="4">
-        <v>39.87</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="E62" s="5">
         <v>6</v>
@@ -4315,24 +4324,24 @@
         <v>153</v>
       </c>
       <c r="J62" s="6">
-        <v>15.88190353466</v>
+        <v>15.881903534659999</v>
       </c>
       <c r="K62" s="3">
         <v>6.52197265625</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C63" s="3">
         <v>28.1882307529449</v>
       </c>
       <c r="D63" s="4">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -4350,21 +4359,21 @@
         <v>390</v>
       </c>
       <c r="J63" s="6">
-        <v>44.8254781746601</v>
+        <v>44.825478174660098</v>
       </c>
       <c r="K63" s="3">
         <v>6.21435546875</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C64" s="3">
-        <v>27.9419405460358</v>
+        <v>27.941940546035799</v>
       </c>
       <c r="D64" s="4">
         <v>39.78</v>
@@ -4385,21 +4394,21 @@
         <v>186</v>
       </c>
       <c r="J64" s="6">
-        <v>20.10304940466</v>
+        <v>20.103049404659998</v>
       </c>
       <c r="K64" s="3">
         <v>5.27490234375</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C65" s="3">
-        <v>27.4995410442352</v>
+        <v>27.499541044235201</v>
       </c>
       <c r="D65" s="4">
         <v>13.85</v>
@@ -4420,24 +4429,24 @@
         <v>390</v>
       </c>
       <c r="J65" s="6">
-        <v>44.5365469246601</v>
+        <v>44.536546924660101</v>
       </c>
       <c r="K65" s="3">
         <v>6.81494140625</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C66" s="3">
-        <v>26.7291698455811</v>
+        <v>26.729169845581101</v>
       </c>
       <c r="D66" s="4">
-        <v>40.91</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -4455,21 +4464,21 @@
         <v>220</v>
       </c>
       <c r="J66" s="6">
-        <v>25.87617045466</v>
+        <v>25.876170454659999</v>
       </c>
       <c r="K66" s="3">
         <v>7.32763671875</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C67" s="3">
-        <v>26.2068696022034</v>
+        <v>26.206869602203401</v>
       </c>
       <c r="D67" s="4">
         <v>23.48</v>
@@ -4490,18 +4499,18 @@
         <v>379</v>
       </c>
       <c r="J67" s="6">
-        <v>42.71470438466</v>
+        <v>42.714704384660003</v>
       </c>
       <c r="K67" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C68" s="3">
         <v>26.1175405979156</v>
@@ -4525,21 +4534,21 @@
         <v>2515</v>
       </c>
       <c r="J68" s="6">
-        <v>277.81579002466</v>
+        <v>277.81579002465998</v>
       </c>
       <c r="K68" s="3">
         <v>5.21142578125</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="3">
-        <v>25.6483919620514</v>
+        <v>25.648391962051399</v>
       </c>
       <c r="D69" s="4">
         <v>28.34</v>
@@ -4560,21 +4569,21 @@
         <v>434</v>
       </c>
       <c r="J69" s="6">
-        <v>47.09824743466</v>
+        <v>47.098247434660003</v>
       </c>
       <c r="K69" s="3">
         <v>6.56591796875</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C70" s="3">
-        <v>25.2467548847198</v>
+        <v>25.246754884719799</v>
       </c>
       <c r="D70" s="4">
         <v>52.6</v>
@@ -4601,7 +4610,7 @@
         <v>6.12548828125</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>250</v>
       </c>
@@ -4609,10 +4618,10 @@
         <v>86</v>
       </c>
       <c r="C71" s="3">
-        <v>25.0181374549866</v>
+        <v>25.018137454986601</v>
       </c>
       <c r="D71" s="4">
-        <v>32.95</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
@@ -4630,15 +4639,15 @@
         <v>261</v>
       </c>
       <c r="J71" s="6">
-        <v>28.85238934466</v>
+        <v>28.852389344660001</v>
       </c>
       <c r="K71" s="3">
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>204</v>
@@ -4665,15 +4674,15 @@
         <v>472</v>
       </c>
       <c r="J72" s="6">
-        <v>52.35762741466</v>
+        <v>52.357627414660001</v>
       </c>
       <c r="K72" s="3">
         <v>6.36669921875</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>65</v>
@@ -4700,15 +4709,15 @@
         <v>150</v>
       </c>
       <c r="J73" s="6">
-        <v>16.42430532466</v>
+        <v>16.424305324660001</v>
       </c>
       <c r="K73" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>55</v>
@@ -4735,24 +4744,24 @@
         <v>740</v>
       </c>
       <c r="J74" s="6">
-        <v>80.5080527846601</v>
+        <v>80.508052784660094</v>
       </c>
       <c r="K74" s="3">
         <v>5.36376953125</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C75" s="3">
-        <v>23.2500147819519</v>
+        <v>23.250014781951901</v>
       </c>
       <c r="D75" s="4">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="E75" s="5">
         <v>4</v>
@@ -4770,21 +4779,21 @@
         <v>640</v>
       </c>
       <c r="J75" s="6">
-        <v>69.7143775546601</v>
+        <v>69.714377554660103</v>
       </c>
       <c r="K75" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C76" s="3">
-        <v>22.6389446258545</v>
+        <v>22.638944625854499</v>
       </c>
       <c r="D76" s="4">
         <v>6.53</v>
@@ -4805,15 +4814,15 @@
         <v>551</v>
       </c>
       <c r="J76" s="6">
-        <v>63.0142400246601</v>
+        <v>63.014240024660097</v>
       </c>
       <c r="K76" s="3">
         <v>7.26904296875</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>183</v>
@@ -4846,15 +4855,15 @@
         <v>7.23974609375</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C78" s="3">
-        <v>21.7149679660797</v>
+        <v>21.714967966079701</v>
       </c>
       <c r="D78" s="4">
         <v>16.43</v>
@@ -4875,18 +4884,18 @@
         <v>639</v>
       </c>
       <c r="J78" s="6">
-        <v>65.3932203446601</v>
+        <v>65.393220344660094</v>
       </c>
       <c r="K78" s="3">
         <v>8.00146484375</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C79" s="3">
         <v>21.0009171962738</v>
@@ -4910,21 +4919,21 @@
         <v>696</v>
       </c>
       <c r="J79" s="6">
-        <v>76.91846236466</v>
+        <v>76.918462364660002</v>
       </c>
       <c r="K79" s="3">
         <v>7.13720703125</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C80" s="3">
-        <v>20.998706817627</v>
+        <v>20.998706817626999</v>
       </c>
       <c r="D80" s="4">
         <v>16.29</v>
@@ -4945,24 +4954,24 @@
         <v>2413</v>
       </c>
       <c r="J80" s="6">
-        <v>260.568815704661</v>
+        <v>260.56881570466101</v>
       </c>
       <c r="K80" s="3">
         <v>5.43994140625</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C81" s="3">
         <v>20.7200880050659</v>
       </c>
       <c r="D81" s="4">
-        <v>68.71</v>
+        <v>68.709999999999994</v>
       </c>
       <c r="E81" s="5">
         <v>2</v>
@@ -4980,13 +4989,13 @@
         <v>147</v>
       </c>
       <c r="J81" s="6">
-        <v>15.87704777466</v>
+        <v>15.877047774659999</v>
       </c>
       <c r="K81" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>253</v>
       </c>
@@ -4994,7 +5003,7 @@
         <v>39</v>
       </c>
       <c r="C82" s="3">
-        <v>20.5767779350281</v>
+        <v>20.576777935028101</v>
       </c>
       <c r="D82" s="4">
         <v>11.35</v>
@@ -5015,21 +5024,21 @@
         <v>423</v>
       </c>
       <c r="J82" s="6">
-        <v>47.62053863466</v>
+        <v>47.620538634660001</v>
       </c>
       <c r="K82" s="3">
         <v>5.51611328125</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C83" s="3">
-        <v>19.5570685863495</v>
+        <v>19.557068586349502</v>
       </c>
       <c r="D83" s="4">
         <v>31.22</v>
@@ -5050,15 +5059,15 @@
         <v>221</v>
       </c>
       <c r="J83" s="6">
-        <v>23.99403516466</v>
+        <v>23.994035164660001</v>
       </c>
       <c r="K83" s="3">
         <v>7.09326171875</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>207</v>
@@ -5091,15 +5100,15 @@
         <v>6.63916015625</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C85" s="3">
-        <v>19.0328729152679</v>
+        <v>19.032872915267902</v>
       </c>
       <c r="D85" s="4">
         <v>11.64</v>
@@ -5120,21 +5129,21 @@
         <v>438</v>
       </c>
       <c r="J85" s="6">
-        <v>49.00482425466</v>
+        <v>49.004824254660001</v>
       </c>
       <c r="K85" s="3">
         <v>5.35107421875</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C86" s="3">
-        <v>18.9856836795807</v>
+        <v>18.985683679580699</v>
       </c>
       <c r="D86" s="4">
         <v>10.8</v>
@@ -5155,21 +5164,21 @@
         <v>537</v>
       </c>
       <c r="J86" s="6">
-        <v>59.4416534646601</v>
+        <v>59.441653464660099</v>
       </c>
       <c r="K86" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C87" s="3">
-        <v>18.5526950359344</v>
+        <v>18.552695035934399</v>
       </c>
       <c r="D87" s="4">
         <v>34.46</v>
@@ -5196,15 +5205,15 @@
         <v>7.85498046875</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C88" s="3">
-        <v>18.0028386116028</v>
+        <v>18.002838611602801</v>
       </c>
       <c r="D88" s="4">
         <v>23.88</v>
@@ -5231,15 +5240,15 @@
         <v>7.59130859375</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C89" s="3">
-        <v>17.9963946342468</v>
+        <v>17.996394634246801</v>
       </c>
       <c r="D89" s="4">
         <v>23.23</v>
@@ -5260,24 +5269,24 @@
         <v>198</v>
       </c>
       <c r="J89" s="6">
-        <v>22.57371707466</v>
+        <v>22.573717074659999</v>
       </c>
       <c r="K89" s="3">
         <v>8.90966796875</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C90" s="3">
-        <v>17.5582392215729</v>
+        <v>17.558239221572901</v>
       </c>
       <c r="D90" s="4">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E90" s="5">
         <v>2</v>
@@ -5295,13 +5304,13 @@
         <v>1310</v>
       </c>
       <c r="J90" s="6">
-        <v>141.45494792466</v>
+        <v>141.45494792465999</v>
       </c>
       <c r="K90" s="3">
         <v>4.50048828125</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>257</v>
       </c>
@@ -5309,10 +5318,10 @@
         <v>112</v>
       </c>
       <c r="C91" s="3">
-        <v>17.4129984378815</v>
+        <v>17.412998437881502</v>
       </c>
       <c r="D91" s="4">
-        <v>75.51</v>
+        <v>75.510000000000005</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
@@ -5336,9 +5345,9 @@
         <v>5.50341796875</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>159</v>
@@ -5371,18 +5380,18 @@
         <v>8.44091796875</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C93" s="3">
-        <v>17.2074589729309</v>
+        <v>17.207458972930901</v>
       </c>
       <c r="D93" s="4">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
@@ -5400,21 +5409,21 @@
         <v>247</v>
       </c>
       <c r="J93" s="6">
-        <v>26.40583207466</v>
+        <v>26.405832074660001</v>
       </c>
       <c r="K93" s="3">
         <v>4.83056640625</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C94" s="3">
-        <v>16.9439542293549</v>
+        <v>16.943954229354901</v>
       </c>
       <c r="D94" s="4">
         <v>9.65</v>
@@ -5435,13 +5444,13 @@
         <v>746</v>
       </c>
       <c r="J94" s="6">
-        <v>84.3653922946601</v>
+        <v>84.365392294660097</v>
       </c>
       <c r="K94" s="3">
         <v>5.71923828125</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>224</v>
       </c>
@@ -5449,7 +5458,7 @@
         <v>85</v>
       </c>
       <c r="C95" s="3">
-        <v>16.8209667205811</v>
+        <v>16.820966720581101</v>
       </c>
       <c r="D95" s="4">
         <v>21.38</v>
@@ -5476,18 +5485,18 @@
         <v>4.97021484375</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C96" s="3">
         <v>16.3207576274872</v>
       </c>
       <c r="D96" s="4">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="E96" s="5">
         <v>3</v>
@@ -5505,21 +5514,21 @@
         <v>438</v>
       </c>
       <c r="J96" s="6">
-        <v>48.90692229466</v>
+        <v>48.906922294659999</v>
       </c>
       <c r="K96" s="3">
         <v>5.35107421875</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="3">
-        <v>16.2428407669067</v>
+        <v>16.242840766906699</v>
       </c>
       <c r="D97" s="4">
         <v>13.85</v>
@@ -5540,21 +5549,21 @@
         <v>563</v>
       </c>
       <c r="J97" s="6">
-        <v>61.1618904246601</v>
+        <v>61.161890424660101</v>
       </c>
       <c r="K97" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="3">
-        <v>16.1417789459229</v>
+        <v>16.141778945922901</v>
       </c>
       <c r="D98" s="4">
         <v>13.66</v>
@@ -5575,21 +5584,21 @@
         <v>344</v>
       </c>
       <c r="J98" s="6">
-        <v>37.17169005466</v>
+        <v>37.171690054659997</v>
       </c>
       <c r="K98" s="3">
         <v>5.82080078125</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C99" s="3">
-        <v>15.6212780475616</v>
+        <v>15.621278047561599</v>
       </c>
       <c r="D99" s="4">
         <v>27.38</v>
@@ -5610,15 +5619,15 @@
         <v>168</v>
       </c>
       <c r="J99" s="6">
-        <v>18.20908720466</v>
+        <v>18.209087204660001</v>
       </c>
       <c r="K99" s="3">
         <v>7.44482421875</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>132</v>
@@ -5645,15 +5654,15 @@
         <v>180</v>
       </c>
       <c r="J100" s="6">
-        <v>21.07834122466</v>
+        <v>21.078341224660001</v>
       </c>
       <c r="K100" s="3">
         <v>6.21435546875</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>80</v>
@@ -5680,18 +5689,18 @@
         <v>845</v>
       </c>
       <c r="J101" s="6">
-        <v>88.1686771246603</v>
+        <v>88.168677124660306</v>
       </c>
       <c r="K101" s="3">
         <v>4.93212890625</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C102" s="3">
         <v>14.9218485355377</v>
@@ -5721,9 +5730,9 @@
         <v>5.89697265625</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>84</v>
@@ -5756,9 +5765,9 @@
         <v>4.97021484375</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>169</v>
@@ -5791,9 +5800,9 @@
         <v>6.50732421875</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>161</v>
@@ -5820,18 +5829,18 @@
         <v>146</v>
       </c>
       <c r="J105" s="6">
-        <v>16.09845933466</v>
+        <v>16.098459334659999</v>
       </c>
       <c r="K105" s="3">
         <v>8.32373046875</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C106" s="3">
         <v>13.947306394577</v>
@@ -5855,18 +5864,18 @@
         <v>147</v>
       </c>
       <c r="J106" s="6">
-        <v>15.79401067466</v>
+        <v>15.794010674660001</v>
       </c>
       <c r="K106" s="3">
         <v>5.49072265625</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C107" s="3">
         <v>13.697169303894</v>
@@ -5890,21 +5899,21 @@
         <v>196</v>
       </c>
       <c r="J107" s="6">
-        <v>21.71669304466</v>
+        <v>21.716693044660001</v>
       </c>
       <c r="K107" s="3">
         <v>8.58740234375</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C108" s="3">
-        <v>13.4749577045441</v>
+        <v>13.474957704544099</v>
       </c>
       <c r="D108" s="4">
         <v>13.46</v>
@@ -5925,15 +5934,15 @@
         <v>260</v>
       </c>
       <c r="J108" s="6">
-        <v>29.35175659466</v>
+        <v>29.351756594659999</v>
       </c>
       <c r="K108" s="3">
         <v>7.84033203125</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>210</v>
@@ -5942,7 +5951,7 @@
         <v>13.4691972732544</v>
       </c>
       <c r="D109" s="4">
-        <v>8.05</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E109" s="5">
         <v>10</v>
@@ -5960,18 +5969,18 @@
         <v>447</v>
       </c>
       <c r="J109" s="6">
-        <v>48.9573778246601</v>
+        <v>48.957377824660099</v>
       </c>
       <c r="K109" s="3">
         <v>5.84619140625</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C110" s="3">
         <v>13.4276621341705</v>
@@ -5995,13 +6004,13 @@
         <v>299</v>
       </c>
       <c r="J110" s="6">
-        <v>33.20854804466</v>
+        <v>33.208548044659999</v>
       </c>
       <c r="K110" s="3">
         <v>6.07470703125</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>223</v>
       </c>
@@ -6030,13 +6039,13 @@
         <v>146</v>
       </c>
       <c r="J111" s="6">
-        <v>16.36748206466</v>
+        <v>16.367482064659999</v>
       </c>
       <c r="K111" s="3">
         <v>8.64599609375</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>259</v>
       </c>
@@ -6071,15 +6080,15 @@
         <v>7.04931640625</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C113" s="3">
-        <v>12.425365447998</v>
+        <v>12.425365447998001</v>
       </c>
       <c r="D113" s="4">
         <v>8.52</v>
@@ -6100,15 +6109,15 @@
         <v>704</v>
       </c>
       <c r="J113" s="6">
-        <v>77.70274272466</v>
+        <v>77.702742724659998</v>
       </c>
       <c r="K113" s="3">
         <v>7.07861328125</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>202</v>
@@ -6141,9 +6150,9 @@
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>76</v>
@@ -6170,15 +6179,15 @@
         <v>607</v>
       </c>
       <c r="J115" s="6">
-        <v>68.1096053646601</v>
+        <v>68.109605364660098</v>
       </c>
       <c r="K115" s="3">
         <v>6.46826171875</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>6</v>
@@ -6205,18 +6214,18 @@
         <v>493</v>
       </c>
       <c r="J116" s="6">
-        <v>55.6529919346601</v>
+        <v>55.652991934660101</v>
       </c>
       <c r="K116" s="3">
         <v>8.04541015625</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C117" s="3">
         <v>11.9603562355042</v>
@@ -6240,13 +6249,13 @@
         <v>411</v>
       </c>
       <c r="J117" s="6">
-        <v>46.20827312466</v>
+        <v>46.208273124660003</v>
       </c>
       <c r="K117" s="3">
         <v>5.98583984375</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>241</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>193</v>
       </c>
       <c r="C118" s="3">
-        <v>11.8768339157104</v>
+        <v>11.876833915710399</v>
       </c>
       <c r="D118" s="4">
         <v>14.41</v>
@@ -6275,15 +6284,15 @@
         <v>333</v>
       </c>
       <c r="J118" s="6">
-        <v>36.2950265346599</v>
+        <v>36.295026534659897</v>
       </c>
       <c r="K118" s="3">
         <v>7.43017578125</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>94</v>
@@ -6310,18 +6319,18 @@
         <v>526</v>
       </c>
       <c r="J119" s="6">
-        <v>57.5247133146601</v>
+        <v>57.524713314660097</v>
       </c>
       <c r="K119" s="3">
         <v>5.97314453125</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C120" s="3">
         <v>11.0252196788788</v>
@@ -6351,7 +6360,7 @@
         <v>5.80810546875</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>266</v>
       </c>
@@ -6386,9 +6395,9 @@
         <v>7.07861328125</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>239</v>
@@ -6415,15 +6424,15 @@
         <v>517</v>
       </c>
       <c r="J122" s="6">
-        <v>56.96679458466</v>
+        <v>56.966794584660001</v>
       </c>
       <c r="K122" s="3">
         <v>6.84423828125</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>40</v>
@@ -6450,15 +6459,15 @@
         <v>421</v>
       </c>
       <c r="J123" s="6">
-        <v>46.91306909466</v>
+        <v>46.913069094660003</v>
       </c>
       <c r="K123" s="3">
         <v>5.46533203125</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>63</v>
@@ -6485,13 +6494,13 @@
         <v>169</v>
       </c>
       <c r="J124" s="6">
-        <v>18.56653374466</v>
+        <v>18.566533744659999</v>
       </c>
       <c r="K124" s="3">
         <v>8.23583984375</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>267</v>
       </c>
@@ -6499,10 +6508,10 @@
         <v>176</v>
       </c>
       <c r="C125" s="3">
-        <v>10.3016521930695</v>
+        <v>10.301652193069501</v>
       </c>
       <c r="D125" s="4">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E125" s="5">
         <v>3</v>
@@ -6520,13 +6529,13 @@
         <v>330</v>
       </c>
       <c r="J125" s="6">
-        <v>36.08316847466</v>
+        <v>36.083168474659999</v>
       </c>
       <c r="K125" s="3">
         <v>8.19189453125</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>263</v>
       </c>
@@ -6555,13 +6564,13 @@
         <v>117</v>
       </c>
       <c r="J126" s="6">
-        <v>12.96687142466</v>
+        <v>12.966871424660001</v>
       </c>
       <c r="K126" s="3">
         <v>8.83642578125</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>249</v>
       </c>
@@ -6569,10 +6578,10 @@
         <v>58</v>
       </c>
       <c r="C127" s="3">
-        <v>9.92565584182739</v>
+        <v>9.9256558418273908</v>
       </c>
       <c r="D127" s="4">
-        <v>16.26</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -6590,21 +6599,21 @@
         <v>246</v>
       </c>
       <c r="J127" s="6">
-        <v>25.94267704466</v>
+        <v>25.942677044660002</v>
       </c>
       <c r="K127" s="3">
         <v>4.89404296875</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C128" s="3">
-        <v>9.90898847579956</v>
+        <v>9.9089884757995605</v>
       </c>
       <c r="D128" s="4">
         <v>6.35</v>
@@ -6631,7 +6640,7 @@
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>235</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="3">
-        <v>9.64075875282288</v>
+        <v>9.6407587528228795</v>
       </c>
       <c r="D129" s="4">
         <v>10.61</v>
@@ -6666,18 +6675,18 @@
         <v>6.72705078125</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C130" s="3">
-        <v>9.47153329849243</v>
+        <v>9.4715332984924299</v>
       </c>
       <c r="D130" s="4">
-        <v>17.94</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="E130" s="5">
         <v>2</v>
@@ -6695,21 +6704,21 @@
         <v>262</v>
       </c>
       <c r="J130" s="6">
-        <v>28.87087987466</v>
+        <v>28.870879874660002</v>
       </c>
       <c r="K130" s="3">
         <v>4.83056640625</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C131" s="3">
-        <v>9.33234477043152</v>
+        <v>9.3323447704315203</v>
       </c>
       <c r="D131" s="4">
         <v>7.36</v>
@@ -6730,13 +6739,13 @@
         <v>584</v>
       </c>
       <c r="J131" s="6">
-        <v>58.79169631466</v>
+        <v>58.791696314660001</v>
       </c>
       <c r="K131" s="3">
         <v>5.21142578125</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>281</v>
       </c>
@@ -6744,7 +6753,7 @@
         <v>99</v>
       </c>
       <c r="C132" s="3">
-        <v>9.3255672454834</v>
+        <v>9.3255672454834002</v>
       </c>
       <c r="D132" s="4">
         <v>8.73</v>
@@ -6765,21 +6774,21 @@
         <v>527</v>
       </c>
       <c r="J132" s="6">
-        <v>59.7187578746601</v>
+        <v>59.718757874660099</v>
       </c>
       <c r="K132" s="3">
         <v>7.38623046875</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C133" s="3">
-        <v>9.02058076858521</v>
+        <v>9.0205807685852104</v>
       </c>
       <c r="D133" s="4">
         <v>8.73</v>
@@ -6800,21 +6809,21 @@
         <v>527</v>
       </c>
       <c r="J133" s="6">
-        <v>59.7194883146601</v>
+        <v>59.719488314660097</v>
       </c>
       <c r="K133" s="3">
         <v>7.50341796875</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="3">
-        <v>8.91047382354736</v>
+        <v>8.9104738235473597</v>
       </c>
       <c r="D134" s="4">
         <v>28.42</v>
@@ -6835,21 +6844,21 @@
         <v>183</v>
       </c>
       <c r="J134" s="6">
-        <v>21.28132518466</v>
+        <v>21.281325184659998</v>
       </c>
       <c r="K134" s="3">
         <v>5.71923828125</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C135" s="3">
-        <v>8.79665327072144</v>
+        <v>8.7966532707214409</v>
       </c>
       <c r="D135" s="4">
         <v>11.29</v>
@@ -6876,15 +6885,15 @@
         <v>4.84326171875</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C136" s="3">
-        <v>8.7474319934845</v>
+        <v>8.7474319934845006</v>
       </c>
       <c r="D136" s="4">
         <v>16</v>
@@ -6905,21 +6914,21 @@
         <v>150</v>
       </c>
       <c r="J136" s="6">
-        <v>16.33306626466</v>
+        <v>16.333066264660001</v>
       </c>
       <c r="K136" s="3">
         <v>5.27490234375</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C137" s="3">
-        <v>8.65945148468018</v>
+        <v>8.6594514846801793</v>
       </c>
       <c r="D137" s="4">
         <v>8.16</v>
@@ -6940,21 +6949,21 @@
         <v>282</v>
       </c>
       <c r="J137" s="6">
-        <v>31.41369499466</v>
+        <v>31.413694994659998</v>
       </c>
       <c r="K137" s="3">
         <v>4.90673828125</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C138" s="3">
-        <v>8.58166742324829</v>
+        <v>8.5816674232482892</v>
       </c>
       <c r="D138" s="4">
         <v>13.46</v>
@@ -6975,21 +6984,21 @@
         <v>260</v>
       </c>
       <c r="J138" s="6">
-        <v>29.39279054466</v>
+        <v>29.392790544659999</v>
       </c>
       <c r="K138" s="3">
         <v>7.85498046875</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C139" s="3">
-        <v>8.36713552474976</v>
+        <v>8.3671355247497594</v>
       </c>
       <c r="D139" s="4">
         <v>6.69</v>
@@ -7010,21 +7019,21 @@
         <v>508</v>
       </c>
       <c r="J139" s="6">
-        <v>57.64435765466</v>
+        <v>57.644357654659999</v>
       </c>
       <c r="K139" s="3">
         <v>6.59521484375</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C140" s="3">
-        <v>8.35453128814697</v>
+        <v>8.3545312881469709</v>
       </c>
       <c r="D140" s="4">
         <v>6.65</v>
@@ -7045,13 +7054,13 @@
         <v>346</v>
       </c>
       <c r="J140" s="6">
-        <v>37.18431084466</v>
+        <v>37.184310844659997</v>
       </c>
       <c r="K140" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>268</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>177</v>
       </c>
       <c r="C141" s="3">
-        <v>8.08643651008606</v>
+        <v>8.0864365100860596</v>
       </c>
       <c r="D141" s="4">
         <v>11.01</v>
@@ -7080,21 +7089,21 @@
         <v>327</v>
       </c>
       <c r="J141" s="6">
-        <v>35.91786734466</v>
+        <v>35.917867344660003</v>
       </c>
       <c r="K141" s="3">
         <v>7.35693359375</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C142" s="3">
-        <v>8.06712460517883</v>
+        <v>8.0671246051788295</v>
       </c>
       <c r="D142" s="4">
         <v>12.46</v>
@@ -7115,13 +7124,13 @@
         <v>313</v>
       </c>
       <c r="J142" s="6">
-        <v>34.93930378466</v>
+        <v>34.939303784659998</v>
       </c>
       <c r="K142" s="3">
         <v>6.01123046875</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>218</v>
       </c>
@@ -7129,7 +7138,7 @@
         <v>131</v>
       </c>
       <c r="C143" s="3">
-        <v>7.70541310310364</v>
+        <v>7.7054131031036404</v>
       </c>
       <c r="D143" s="4">
         <v>26.32</v>
@@ -7156,18 +7165,18 @@
         <v>6.56591796875</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C144" s="3">
-        <v>7.60015225410461</v>
+        <v>7.6001522541046098</v>
       </c>
       <c r="D144" s="4">
-        <v>9.97</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E144" s="5">
         <v>8</v>
@@ -7185,21 +7194,21 @@
         <v>381</v>
       </c>
       <c r="J144" s="6">
-        <v>42.84358695466</v>
+        <v>42.843586954659997</v>
       </c>
       <c r="K144" s="3">
         <v>6.36669921875</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C145" s="3">
-        <v>7.52805352210999</v>
+        <v>7.5280535221099898</v>
       </c>
       <c r="D145" s="4">
         <v>8.31</v>
@@ -7220,21 +7229,21 @@
         <v>349</v>
       </c>
       <c r="J145" s="6">
-        <v>38.13009128466</v>
+        <v>38.130091284659997</v>
       </c>
       <c r="K145" s="3">
         <v>7.38623046875</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C146" s="3">
-        <v>7.52490735054016</v>
+        <v>7.5249073505401602</v>
       </c>
       <c r="D146" s="4">
         <v>5.08</v>
@@ -7255,21 +7264,21 @@
         <v>374</v>
       </c>
       <c r="J146" s="6">
-        <v>42.50198280466</v>
+        <v>42.501982804660003</v>
       </c>
       <c r="K146" s="3">
         <v>7.06396484375</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C147" s="3">
-        <v>7.43116760253906</v>
+        <v>7.4311676025390598</v>
       </c>
       <c r="D147" s="4">
         <v>14.01</v>
@@ -7290,21 +7299,21 @@
         <v>157</v>
       </c>
       <c r="J147" s="6">
-        <v>17.23069356466</v>
+        <v>17.230693564660001</v>
       </c>
       <c r="K147" s="3">
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C148" s="3">
-        <v>7.07432961463928</v>
+        <v>7.0743296146392796</v>
       </c>
       <c r="D148" s="4">
         <v>3.42</v>
@@ -7325,13 +7334,13 @@
         <v>438</v>
       </c>
       <c r="J148" s="6">
-        <v>48.36004975466</v>
+        <v>48.360049754659997</v>
       </c>
       <c r="K148" s="3">
         <v>5.46533203125</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>256</v>
       </c>
@@ -7339,7 +7348,7 @@
         <v>43</v>
       </c>
       <c r="C149" s="3">
-        <v>7.07272815704346</v>
+        <v>7.0727281570434597</v>
       </c>
       <c r="D149" s="4">
         <v>1.29</v>
@@ -7360,13 +7369,13 @@
         <v>1474</v>
       </c>
       <c r="J149" s="6">
-        <v>163.18789839466</v>
+        <v>163.18789839466001</v>
       </c>
       <c r="K149" s="3">
         <v>6.45556640625</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>244</v>
       </c>
@@ -7374,7 +7383,7 @@
         <v>111</v>
       </c>
       <c r="C150" s="3">
-        <v>7.07211685180664</v>
+        <v>7.0721168518066397</v>
       </c>
       <c r="D150" s="4">
         <v>10.5</v>
@@ -7395,21 +7404,21 @@
         <v>381</v>
       </c>
       <c r="J150" s="6">
-        <v>43.08484320466</v>
+        <v>43.084843204659997</v>
       </c>
       <c r="K150" s="3">
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C151" s="3">
-        <v>6.93584275245667</v>
+        <v>6.9358427524566704</v>
       </c>
       <c r="D151" s="4">
         <v>21.68</v>
@@ -7430,21 +7439,21 @@
         <v>143</v>
       </c>
       <c r="J151" s="6">
-        <v>15.77156375466</v>
+        <v>15.771563754660001</v>
       </c>
       <c r="K151" s="3">
         <v>5.41455078125</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C152" s="3">
-        <v>6.8659942150116</v>
+        <v>6.8659942150116002</v>
       </c>
       <c r="D152" s="4">
         <v>12.07</v>
@@ -7465,13 +7474,13 @@
         <v>381</v>
       </c>
       <c r="J152" s="6">
-        <v>43.07390000466</v>
+        <v>43.073900004659997</v>
       </c>
       <c r="K152" s="3">
         <v>7.25439453125</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>217</v>
       </c>
@@ -7479,7 +7488,7 @@
         <v>197</v>
       </c>
       <c r="C153" s="3">
-        <v>6.85238599777222</v>
+        <v>6.8523859977722203</v>
       </c>
       <c r="D153" s="4">
         <v>1.3</v>
@@ -7506,9 +7515,9 @@
         <v>5.89697265625</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>148</v>
@@ -7541,15 +7550,15 @@
         <v>5.09716796875</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C155" s="3">
-        <v>6.76665592193604</v>
+        <v>6.7666559219360396</v>
       </c>
       <c r="D155" s="4">
         <v>13.78</v>
@@ -7570,18 +7579,18 @@
         <v>254</v>
       </c>
       <c r="J155" s="6">
-        <v>28.87985010466</v>
+        <v>28.879850104660001</v>
       </c>
       <c r="K155" s="3">
         <v>7.48876953125</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C156" s="3">
         <v>6.71433329582214</v>
@@ -7611,7 +7620,7 @@
         <v>5.07177734375</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>245</v>
       </c>
@@ -7619,7 +7628,7 @@
         <v>109</v>
       </c>
       <c r="C157" s="3">
-        <v>6.62517976760864</v>
+        <v>6.6251797676086399</v>
       </c>
       <c r="D157" s="4">
         <v>3.41</v>
@@ -7640,21 +7649,21 @@
         <v>381</v>
       </c>
       <c r="J157" s="6">
-        <v>43.30097424466</v>
+        <v>43.300974244659997</v>
       </c>
       <c r="K157" s="3">
         <v>6.99072265625</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="3">
-        <v>6.60912203788757</v>
+        <v>6.6091220378875697</v>
       </c>
       <c r="D158" s="4">
         <v>4.46</v>
@@ -7675,13 +7684,13 @@
         <v>336</v>
       </c>
       <c r="J158" s="6">
-        <v>35.93633879466</v>
+        <v>35.936338794660003</v>
       </c>
       <c r="K158" s="3">
         <v>5.55419921875</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>25</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>81</v>
       </c>
       <c r="C159" s="3">
-        <v>6.60232257843018</v>
+        <v>6.6023225784301802</v>
       </c>
       <c r="D159" s="4">
         <v>3.17</v>
@@ -7716,15 +7725,15 @@
         <v>6.36669921875</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C160" s="3">
-        <v>6.59500861167908</v>
+        <v>6.5950086116790798</v>
       </c>
       <c r="D160" s="4">
         <v>2.78</v>
@@ -7745,13 +7754,13 @@
         <v>468</v>
       </c>
       <c r="J160" s="6">
-        <v>54.2816534146601</v>
+        <v>54.281653414660099</v>
       </c>
       <c r="K160" s="3">
         <v>5.94775390625</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>221</v>
       </c>
@@ -7759,7 +7768,7 @@
         <v>64</v>
       </c>
       <c r="C161" s="3">
-        <v>6.57338309288025</v>
+        <v>6.5733830928802499</v>
       </c>
       <c r="D161" s="4">
         <v>9.33</v>
@@ -7780,13 +7789,13 @@
         <v>150</v>
       </c>
       <c r="J161" s="6">
-        <v>16.45740428466</v>
+        <v>16.457404284660001</v>
       </c>
       <c r="K161" s="3">
         <v>7.34228515625</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>17</v>
       </c>
@@ -7794,7 +7803,7 @@
         <v>236</v>
       </c>
       <c r="C162" s="3">
-        <v>6.46370720863342</v>
+        <v>6.4637072086334202</v>
       </c>
       <c r="D162" s="4">
         <v>9.27</v>
@@ -7815,21 +7824,21 @@
         <v>356</v>
       </c>
       <c r="J162" s="6">
-        <v>38.42651453466</v>
+        <v>38.426514534660001</v>
       </c>
       <c r="K162" s="3">
         <v>5.46533203125</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C163" s="3">
-        <v>6.4538733959198</v>
+        <v>6.4538733959197998</v>
       </c>
       <c r="D163" s="4">
         <v>11.72</v>
@@ -7850,18 +7859,18 @@
         <v>128</v>
       </c>
       <c r="J163" s="6">
-        <v>14.16779357466</v>
+        <v>14.167793574659999</v>
       </c>
       <c r="K163" s="3">
         <v>6.48095703125</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C164" s="3">
         <v>6.44270944595337</v>
@@ -7885,13 +7894,13 @@
         <v>108</v>
       </c>
       <c r="J164" s="6">
-        <v>11.23071619466</v>
+        <v>11.230716194659999</v>
       </c>
       <c r="K164" s="3">
         <v>4.81787109375</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>66</v>
       </c>
@@ -7899,7 +7908,7 @@
         <v>165</v>
       </c>
       <c r="C165" s="3">
-        <v>6.38954281806946</v>
+        <v>6.3895428180694598</v>
       </c>
       <c r="D165" s="4">
         <v>3.83</v>
@@ -7920,21 +7929,21 @@
         <v>549</v>
       </c>
       <c r="J165" s="6">
-        <v>59.5345563746601</v>
+        <v>59.534556374660099</v>
       </c>
       <c r="K165" s="3">
         <v>5.42724609375</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="3">
-        <v>6.22189378738403</v>
+        <v>6.2218937873840297</v>
       </c>
       <c r="D166" s="4">
         <v>3.7</v>
@@ -7955,24 +7964,24 @@
         <v>567</v>
       </c>
       <c r="J166" s="6">
-        <v>61.9838714746601</v>
+        <v>61.983871474660098</v>
       </c>
       <c r="K166" s="3">
         <v>7.75244140625</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C167" s="3">
-        <v>6.09585738182068</v>
+        <v>6.0958573818206796</v>
       </c>
       <c r="D167" s="4">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E167" s="5">
         <v>3</v>
@@ -7990,21 +7999,21 @@
         <v>413</v>
       </c>
       <c r="J167" s="6">
-        <v>46.36966391466</v>
+        <v>46.369663914660002</v>
       </c>
       <c r="K167" s="3">
         <v>7.48876953125</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C168" s="3">
-        <v>6.07911968231201</v>
+        <v>6.0791196823120099</v>
       </c>
       <c r="D168" s="4">
         <v>14.11</v>
@@ -8031,7 +8040,7 @@
         <v>7.43017578125</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>9</v>
       </c>
@@ -8039,10 +8048,10 @@
         <v>180</v>
       </c>
       <c r="C169" s="3">
-        <v>5.93730878829956</v>
+        <v>5.9373087882995597</v>
       </c>
       <c r="D169" s="4">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E169" s="5">
         <v>8</v>
@@ -8066,9 +8075,9 @@
         <v>5.93505859375</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>126</v>
@@ -8077,7 +8086,7 @@
         <v>5.89794826507568</v>
       </c>
       <c r="D170" s="4">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E170" s="5">
         <v>1</v>
@@ -8095,21 +8104,21 @@
         <v>428</v>
       </c>
       <c r="J170" s="6">
-        <v>45.80148894466</v>
+        <v>45.801488944660001</v>
       </c>
       <c r="K170" s="3">
         <v>4.91943359375</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C171" s="3">
-        <v>5.89748001098633</v>
+        <v>5.8974800109863299</v>
       </c>
       <c r="D171" s="4">
         <v>17.36</v>
@@ -8130,21 +8139,21 @@
         <v>121</v>
       </c>
       <c r="J171" s="6">
-        <v>13.37159317466</v>
+        <v>13.371593174659999</v>
       </c>
       <c r="K171" s="3">
         <v>5.24951171875</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C172" s="3">
-        <v>5.71192264556885</v>
+        <v>5.7119226455688503</v>
       </c>
       <c r="D172" s="4">
         <v>4.97</v>
@@ -8165,21 +8174,21 @@
         <v>584</v>
       </c>
       <c r="J172" s="6">
-        <v>65.2252724946601</v>
+        <v>65.225272494660103</v>
       </c>
       <c r="K172" s="3">
         <v>5.33837890625</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C173" s="3">
-        <v>5.47236394882202</v>
+        <v>5.4723639488220197</v>
       </c>
       <c r="D173" s="4">
         <v>3.88</v>
@@ -8200,21 +8209,21 @@
         <v>335</v>
       </c>
       <c r="J173" s="6">
-        <v>37.36903820466</v>
+        <v>37.369038204660001</v>
       </c>
       <c r="K173" s="3">
         <v>8.07470703125</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C174" s="3">
-        <v>5.32086026668549</v>
+        <v>5.3208602666854903</v>
       </c>
       <c r="D174" s="4">
         <v>17.29</v>
@@ -8235,13 +8244,13 @@
         <v>133</v>
       </c>
       <c r="J174" s="6">
-        <v>14.84872758466</v>
+        <v>14.848727584660001</v>
       </c>
       <c r="K174" s="3">
         <v>6.80029296875</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>272</v>
       </c>
@@ -8249,7 +8258,7 @@
         <v>194</v>
       </c>
       <c r="C175" s="3">
-        <v>5.11134672164917</v>
+        <v>5.1113467216491699</v>
       </c>
       <c r="D175" s="4">
         <v>10.09</v>
@@ -8270,21 +8279,21 @@
         <v>347</v>
       </c>
       <c r="J175" s="6">
-        <v>38.15411290466</v>
+        <v>38.154112904660003</v>
       </c>
       <c r="K175" s="3">
         <v>6.94677734375</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C176" s="3">
-        <v>5.09800815582275</v>
+        <v>5.0980081558227504</v>
       </c>
       <c r="D176" s="4">
         <v>10.7</v>
@@ -8305,21 +8314,21 @@
         <v>187</v>
       </c>
       <c r="J176" s="6">
-        <v>21.04366691466</v>
+        <v>21.043666914660001</v>
       </c>
       <c r="K176" s="3">
         <v>7.53271484375</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C177" s="3">
-        <v>4.94708037376404</v>
+        <v>4.9470803737640399</v>
       </c>
       <c r="D177" s="4">
         <v>3.42</v>
@@ -8340,13 +8349,13 @@
         <v>351</v>
       </c>
       <c r="J177" s="6">
-        <v>38.04255247466</v>
+        <v>38.042552474659999</v>
       </c>
       <c r="K177" s="3">
         <v>6.34130859375</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>258</v>
       </c>
@@ -8354,7 +8363,7 @@
         <v>203</v>
       </c>
       <c r="C178" s="3">
-        <v>4.86489772796631</v>
+        <v>4.8648977279663104</v>
       </c>
       <c r="D178" s="4">
         <v>48.72</v>
@@ -8375,21 +8384,21 @@
         <v>39</v>
       </c>
       <c r="J178" s="6">
-        <v>4.29679052466</v>
+        <v>4.2967905246600004</v>
       </c>
       <c r="K178" s="3">
         <v>7.13720703125</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C179" s="3">
-        <v>4.77049541473389</v>
+        <v>4.7704954147338903</v>
       </c>
       <c r="D179" s="4">
         <v>11.69</v>
@@ -8410,13 +8419,13 @@
         <v>325</v>
       </c>
       <c r="J179" s="6">
-        <v>36.18820060466</v>
+        <v>36.188200604659997</v>
       </c>
       <c r="K179" s="3">
         <v>8.27978515625</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>141</v>
       </c>
@@ -8424,7 +8433,7 @@
         <v>28</v>
       </c>
       <c r="C180" s="3">
-        <v>4.75025701522827</v>
+        <v>4.7502570152282697</v>
       </c>
       <c r="D180" s="4">
         <v>8.36</v>
@@ -8445,15 +8454,15 @@
         <v>299</v>
       </c>
       <c r="J180" s="6">
-        <v>31.72665533466</v>
+        <v>31.726655334659998</v>
       </c>
       <c r="K180" s="3">
         <v>4.91943359375</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>206</v>
@@ -8462,7 +8471,7 @@
         <v>4.69152879714966</v>
       </c>
       <c r="D181" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E181" s="5">
         <v>1</v>
@@ -8480,15 +8489,15 @@
         <v>5654</v>
       </c>
       <c r="J181" s="6">
-        <v>585.198720194676</v>
+        <v>585.19872019467596</v>
       </c>
       <c r="K181" s="3">
         <v>7.02001953125</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>216</v>
@@ -8521,7 +8530,7 @@
         <v>5.37646484375</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>262</v>
       </c>
@@ -8529,10 +8538,10 @@
         <v>166</v>
       </c>
       <c r="C183" s="3">
-        <v>4.47330379486084</v>
+        <v>4.4733037948608398</v>
       </c>
       <c r="D183" s="4">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E183" s="5">
         <v>1</v>
@@ -8556,15 +8565,15 @@
         <v>5.40185546875</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C184" s="3">
-        <v>4.43768644332886</v>
+        <v>4.4376864433288601</v>
       </c>
       <c r="D184" s="4">
         <v>3.31</v>
@@ -8585,21 +8594,21 @@
         <v>513</v>
       </c>
       <c r="J184" s="6">
-        <v>56.9750668346601</v>
+        <v>56.975066834660097</v>
       </c>
       <c r="K184" s="3">
         <v>5.55419921875</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C185" s="3">
-        <v>4.42573833465576</v>
+        <v>4.4257383346557599</v>
       </c>
       <c r="D185" s="4">
         <v>6.56</v>
@@ -8620,18 +8629,18 @@
         <v>244</v>
       </c>
       <c r="J185" s="6">
-        <v>26.94133513466</v>
+        <v>26.941335134660001</v>
       </c>
       <c r="K185" s="3">
         <v>7.48876953125</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C186" s="3">
         <v>4.39349365234375</v>
@@ -8655,21 +8664,21 @@
         <v>164</v>
       </c>
       <c r="J186" s="6">
-        <v>17.86280685466</v>
+        <v>17.862806854660001</v>
       </c>
       <c r="K186" s="3">
         <v>8.16259765625</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C187" s="3">
-        <v>4.33053302764893</v>
+        <v>4.3305330276489302</v>
       </c>
       <c r="D187" s="4">
         <v>7.97</v>
@@ -8690,18 +8699,18 @@
         <v>251</v>
       </c>
       <c r="J187" s="6">
-        <v>26.85684406466</v>
+        <v>26.856844064659999</v>
       </c>
       <c r="K187" s="3">
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C188" s="3">
         <v>4.2902045249939</v>
@@ -8725,21 +8734,21 @@
         <v>146</v>
       </c>
       <c r="J188" s="6">
-        <v>16.56179653466</v>
+        <v>16.561796534660001</v>
       </c>
       <c r="K188" s="3">
         <v>8.04541015625</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C189" s="3">
-        <v>4.20312118530273</v>
+        <v>4.2031211853027299</v>
       </c>
       <c r="D189" s="4">
         <v>4.72</v>
@@ -8766,7 +8775,7 @@
         <v>4.95751953125</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>275</v>
       </c>
@@ -8774,7 +8783,7 @@
         <v>37</v>
       </c>
       <c r="C190" s="3">
-        <v>4.14481353759766</v>
+        <v>4.1448135375976598</v>
       </c>
       <c r="D190" s="4">
         <v>7.46</v>
@@ -8795,24 +8804,24 @@
         <v>201</v>
       </c>
       <c r="J190" s="6">
-        <v>23.49676024466</v>
+        <v>23.496760244659999</v>
       </c>
       <c r="K190" s="3">
         <v>5.02099609375</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C191" s="3">
-        <v>4.09286308288574</v>
+        <v>4.0928630828857404</v>
       </c>
       <c r="D191" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E191" s="5">
         <v>1</v>
@@ -8830,21 +8839,21 @@
         <v>455</v>
       </c>
       <c r="J191" s="6">
-        <v>52.5280221246601</v>
+        <v>52.528022124660097</v>
       </c>
       <c r="K191" s="3">
         <v>6.26513671875</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C192" s="3">
-        <v>4.05479764938354</v>
+        <v>4.0547976493835396</v>
       </c>
       <c r="D192" s="4">
         <v>7.43</v>
@@ -8865,13 +8874,13 @@
         <v>202</v>
       </c>
       <c r="J192" s="6">
-        <v>23.16764947466</v>
+        <v>23.167649474659999</v>
       </c>
       <c r="K192" s="3">
         <v>5.87158203125</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>230</v>
       </c>
@@ -8879,7 +8888,7 @@
         <v>137</v>
       </c>
       <c r="C193" s="3">
-        <v>3.97550559043884</v>
+        <v>3.9755055904388401</v>
       </c>
       <c r="D193" s="4">
         <v>1.99</v>
@@ -8900,13 +8909,13 @@
         <v>704</v>
       </c>
       <c r="J193" s="6">
-        <v>78.08553348466</v>
+        <v>78.085533484660004</v>
       </c>
       <c r="K193" s="3">
         <v>5.08447265625</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>24</v>
       </c>
@@ -8941,15 +8950,15 @@
         <v>6.78564453125</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C195" s="3">
-        <v>3.72270274162292</v>
+        <v>3.7227027416229199</v>
       </c>
       <c r="D195" s="4">
         <v>2.9</v>
@@ -8970,21 +8979,21 @@
         <v>449</v>
       </c>
       <c r="J195" s="6">
-        <v>50.7327933646601</v>
+        <v>50.732793364660097</v>
       </c>
       <c r="K195" s="3">
         <v>5.03369140625</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C196" s="3">
-        <v>3.72148942947388</v>
+        <v>3.7214894294738801</v>
       </c>
       <c r="D196" s="4">
         <v>5.05</v>
@@ -9005,13 +9014,13 @@
         <v>416</v>
       </c>
       <c r="J196" s="6">
-        <v>45.95567729466</v>
+        <v>45.955677294659999</v>
       </c>
       <c r="K196" s="3">
         <v>6.26513671875</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>20</v>
       </c>
@@ -9046,18 +9055,18 @@
         <v>5.99853515625</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C198" s="3">
-        <v>3.72078967094421</v>
+        <v>3.7207896709442099</v>
       </c>
       <c r="D198" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E198" s="5">
         <v>14</v>
@@ -9075,13 +9084,13 @@
         <v>294</v>
       </c>
       <c r="J198" s="6">
-        <v>31.42819305466</v>
+        <v>31.428193054659999</v>
       </c>
       <c r="K198" s="3">
         <v>6.69775390625</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>229</v>
       </c>
@@ -9089,10 +9098,10 @@
         <v>101</v>
       </c>
       <c r="C199" s="3">
-        <v>3.71897578239441</v>
+        <v>3.7189757823944101</v>
       </c>
       <c r="D199" s="4">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E199" s="5">
         <v>3</v>
@@ -9110,15 +9119,15 @@
         <v>497</v>
       </c>
       <c r="J199" s="6">
-        <v>57.2679172146601</v>
+        <v>57.267917214660102</v>
       </c>
       <c r="K199" s="3">
         <v>6.93212890625</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>78</v>
@@ -9145,13 +9154,13 @@
         <v>882</v>
       </c>
       <c r="J200" s="6">
-        <v>97.3958636646601</v>
+        <v>97.395863664660098</v>
       </c>
       <c r="K200" s="3">
         <v>4.72900390625</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>11</v>
       </c>
@@ -9159,7 +9168,7 @@
         <v>128</v>
       </c>
       <c r="C201" s="3">
-        <v>3.70082521438599</v>
+        <v>3.7008252143859899</v>
       </c>
       <c r="D201" s="4">
         <v>9.85</v>
@@ -9186,15 +9195,15 @@
         <v>5.68115234375</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C202" s="3">
-        <v>3.57622861862183</v>
+        <v>3.5762286186218302</v>
       </c>
       <c r="D202" s="4">
         <v>19.23</v>
@@ -9215,18 +9224,18 @@
         <v>78</v>
       </c>
       <c r="J202" s="6">
-        <v>8.77857119466</v>
+        <v>8.7785711946599996</v>
       </c>
       <c r="K202" s="3">
         <v>6.25244140625</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C203" s="3">
         <v>3.54197430610657</v>
@@ -9250,13 +9259,13 @@
         <v>45</v>
       </c>
       <c r="J203" s="6">
-        <v>4.65541406466</v>
+        <v>4.6554140646600004</v>
       </c>
       <c r="K203" s="3">
         <v>9.99365234375</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>225</v>
       </c>
@@ -9264,7 +9273,7 @@
         <v>153</v>
       </c>
       <c r="C204" s="3">
-        <v>3.49570775032043</v>
+        <v>3.4957077503204301</v>
       </c>
       <c r="D204" s="4">
         <v>5.07</v>
@@ -9291,7 +9300,7 @@
         <v>7.88427734375</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>219</v>
       </c>
@@ -9320,21 +9329,21 @@
         <v>386</v>
       </c>
       <c r="J205" s="6">
-        <v>41.40003650466</v>
+        <v>41.400036504660001</v>
       </c>
       <c r="K205" s="3">
         <v>7.89892578125</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C206" s="3">
-        <v>3.46845436096191</v>
+        <v>3.4684543609619101</v>
       </c>
       <c r="D206" s="4">
         <v>0.53</v>
@@ -9355,21 +9364,21 @@
         <v>2647</v>
       </c>
       <c r="J206" s="6">
-        <v>280.563886314661</v>
+        <v>280.56388631466098</v>
       </c>
       <c r="K206" s="3">
         <v>6.06201171875</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C207" s="3">
-        <v>3.45745706558228</v>
+        <v>3.4574570655822798</v>
       </c>
       <c r="D207" s="4">
         <v>3.97</v>
@@ -9390,13 +9399,13 @@
         <v>428</v>
       </c>
       <c r="J207" s="6">
-        <v>46.42291563466</v>
+        <v>46.422915634660001</v>
       </c>
       <c r="K207" s="3">
         <v>4.83056640625</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>261</v>
       </c>
@@ -9404,7 +9413,7 @@
         <v>168</v>
       </c>
       <c r="C208" s="3">
-        <v>3.42094564437866</v>
+        <v>3.4209456443786599</v>
       </c>
       <c r="D208" s="4">
         <v>12.04</v>
@@ -9431,15 +9440,15 @@
         <v>6.60986328125</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C209" s="3">
-        <v>3.4131543636322</v>
+        <v>3.4131543636321999</v>
       </c>
       <c r="D209" s="4">
         <v>12.71</v>
@@ -9460,15 +9469,15 @@
         <v>118</v>
       </c>
       <c r="J209" s="6">
-        <v>12.82673920466</v>
+        <v>12.826739204660001</v>
       </c>
       <c r="K209" s="3">
         <v>7.13720703125</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>48</v>
@@ -9495,21 +9504,21 @@
         <v>44</v>
       </c>
       <c r="J210" s="6">
-        <v>4.79328735466</v>
+        <v>4.7932873546600003</v>
       </c>
       <c r="K210" s="3">
         <v>7.67919921875</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C211" s="3">
-        <v>3.37303376197815</v>
+        <v>3.3730337619781499</v>
       </c>
       <c r="D211" s="4">
         <v>6.11</v>
@@ -9530,21 +9539,21 @@
         <v>229</v>
       </c>
       <c r="J211" s="6">
-        <v>26.30886287466</v>
+        <v>26.308862874660001</v>
       </c>
       <c r="K211" s="3">
         <v>9.02685546875</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C212" s="3">
-        <v>3.34414601325989</v>
+        <v>3.3441460132598899</v>
       </c>
       <c r="D212" s="4">
         <v>2.44</v>
@@ -9571,9 +9580,9 @@
         <v>6.02392578125</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>214</v>
@@ -9600,21 +9609,21 @@
         <v>643</v>
       </c>
       <c r="J213" s="6">
-        <v>70.0405415046601</v>
+        <v>70.040541504660098</v>
       </c>
       <c r="K213" s="3">
         <v>7.41552734375</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C214" s="3">
-        <v>3.32271718978882</v>
+        <v>3.3227171897888201</v>
       </c>
       <c r="D214" s="4">
         <v>2.57</v>
@@ -9635,21 +9644,21 @@
         <v>583</v>
       </c>
       <c r="J214" s="6">
-        <v>66.52553923466</v>
+        <v>66.525539234660002</v>
       </c>
       <c r="K214" s="3">
         <v>5.68115234375</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C215" s="3">
-        <v>3.28404903411865</v>
+        <v>3.2840490341186501</v>
       </c>
       <c r="D215" s="4">
         <v>4.93</v>
@@ -9670,24 +9679,24 @@
         <v>750</v>
       </c>
       <c r="J215" s="6">
-        <v>85.5276797846601</v>
+        <v>85.527679784660094</v>
       </c>
       <c r="K215" s="3">
         <v>5.51611328125</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C216" s="3">
-        <v>3.26867842674255</v>
+        <v>3.2686784267425502</v>
       </c>
       <c r="D216" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E216" s="5">
         <v>1</v>
@@ -9705,13 +9714,13 @@
         <v>455</v>
       </c>
       <c r="J216" s="6">
-        <v>52.65588116466</v>
+        <v>52.655881164660002</v>
       </c>
       <c r="K216" s="3">
         <v>5.89697265625</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>243</v>
       </c>
@@ -9719,7 +9728,7 @@
         <v>62</v>
       </c>
       <c r="C217" s="3">
-        <v>3.26066589355469</v>
+        <v>3.2606658935546902</v>
       </c>
       <c r="D217" s="4">
         <v>3.4</v>
@@ -9740,21 +9749,21 @@
         <v>412</v>
       </c>
       <c r="J217" s="6">
-        <v>45.90623514466</v>
+        <v>45.906235144660002</v>
       </c>
       <c r="K217" s="3">
         <v>8.11865234375</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C218" s="3">
-        <v>3.2404317855835</v>
+        <v>3.2404317855835001</v>
       </c>
       <c r="D218" s="4">
         <v>10.19</v>
@@ -9775,21 +9784,21 @@
         <v>108</v>
       </c>
       <c r="J218" s="6">
-        <v>11.32375943466</v>
+        <v>11.323759434659999</v>
       </c>
       <c r="K218" s="3">
         <v>4.64013671875</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C219" s="3">
-        <v>3.23865365982056</v>
+        <v>3.2386536598205602</v>
       </c>
       <c r="D219" s="4">
         <v>4.04</v>
@@ -9810,21 +9819,21 @@
         <v>446</v>
       </c>
       <c r="J219" s="6">
-        <v>48.45949996466</v>
+        <v>48.459499964659997</v>
       </c>
       <c r="K219" s="3">
         <v>6.75634765625</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C220" s="3">
-        <v>3.22278571128845</v>
+        <v>3.2227857112884499</v>
       </c>
       <c r="D220" s="4">
         <v>8.77</v>
@@ -9845,24 +9854,24 @@
         <v>171</v>
       </c>
       <c r="J220" s="6">
-        <v>18.51308086466</v>
+        <v>18.513080864660001</v>
       </c>
       <c r="K220" s="3">
         <v>6.46826171875</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C221" s="3">
-        <v>3.21583271026611</v>
+        <v>3.2158327102661102</v>
       </c>
       <c r="D221" s="4">
-        <v>8.03</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E221" s="5">
         <v>4</v>
@@ -9886,12 +9895,12 @@
         <v>8.67529296875</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C222" s="3">
         <v>3.20472955703735</v>
@@ -9915,21 +9924,21 @@
         <v>438</v>
       </c>
       <c r="J222" s="6">
-        <v>48.90588803466</v>
+        <v>48.905888034660002</v>
       </c>
       <c r="K222" s="3">
         <v>5.65576171875</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C223" s="3">
-        <v>3.19028186798096</v>
+        <v>3.1902818679809601</v>
       </c>
       <c r="D223" s="4">
         <v>1.35</v>
@@ -9956,15 +9965,15 @@
         <v>5.12255859375</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C224" s="3">
-        <v>3.18689680099487</v>
+        <v>3.1868968009948699</v>
       </c>
       <c r="D224" s="4">
         <v>4.42</v>
@@ -9985,15 +9994,15 @@
         <v>339</v>
       </c>
       <c r="J224" s="6">
-        <v>36.16166743466</v>
+        <v>36.161667434660004</v>
       </c>
       <c r="K224" s="3">
         <v>7.85498046875</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>143</v>
@@ -10020,15 +10029,15 @@
         <v>323</v>
       </c>
       <c r="J225" s="6">
-        <v>35.91818598466</v>
+        <v>35.918185984659999</v>
       </c>
       <c r="K225" s="3">
         <v>9.15869140625</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>123</v>
@@ -10055,15 +10064,15 @@
         <v>326</v>
       </c>
       <c r="J226" s="6">
-        <v>34.56353643466</v>
+        <v>34.563536434660001</v>
       </c>
       <c r="K226" s="3">
         <v>7.89892578125</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>209</v>
@@ -10096,15 +10105,15 @@
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C228" s="3">
-        <v>3.12139081954956</v>
+        <v>3.1213908195495601</v>
       </c>
       <c r="D228" s="4">
         <v>3.27</v>
@@ -10125,21 +10134,21 @@
         <v>398</v>
       </c>
       <c r="J228" s="6">
-        <v>42.9543988846601</v>
+        <v>42.954398884660101</v>
       </c>
       <c r="K228" s="3">
         <v>5.32568359375</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C229" s="3">
-        <v>3.11822009086609</v>
+        <v>3.1182200908660902</v>
       </c>
       <c r="D229" s="4">
         <v>2.42</v>
@@ -10160,21 +10169,21 @@
         <v>454</v>
       </c>
       <c r="J229" s="6">
-        <v>47.5751923646601</v>
+        <v>47.575192364660097</v>
       </c>
       <c r="K229" s="3">
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C230" s="3">
-        <v>3.08494734764099</v>
+        <v>3.0849473476409899</v>
       </c>
       <c r="D230" s="4">
         <v>12.24</v>
@@ -10201,15 +10210,15 @@
         <v>7.56201171875</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C231" s="3">
-        <v>3.08209490776062</v>
+        <v>3.0820949077606201</v>
       </c>
       <c r="D231" s="4">
         <v>5.54</v>
@@ -10230,21 +10239,21 @@
         <v>343</v>
       </c>
       <c r="J231" s="6">
-        <v>36.40825665466</v>
+        <v>36.408256654660001</v>
       </c>
       <c r="K231" s="3">
         <v>5.84619140625</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C232" s="3">
-        <v>3.07725048065186</v>
+        <v>3.0772504806518599</v>
       </c>
       <c r="D232" s="4">
         <v>2.33</v>
@@ -10265,24 +10274,24 @@
         <v>472</v>
       </c>
       <c r="J232" s="6">
-        <v>51.64632431466</v>
+        <v>51.646324314659999</v>
       </c>
       <c r="K232" s="3">
         <v>5.83349609375</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C233" s="3">
-        <v>3.06508898735046</v>
+        <v>3.0650889873504599</v>
       </c>
       <c r="D233" s="4">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E233" s="5">
         <v>1</v>
@@ -10300,21 +10309,21 @@
         <v>493</v>
       </c>
       <c r="J233" s="6">
-        <v>54.6658062446601</v>
+        <v>54.665806244660097</v>
       </c>
       <c r="K233" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C234" s="3">
-        <v>3.02358508110046</v>
+        <v>3.0235850811004599</v>
       </c>
       <c r="D234" s="4">
         <v>2.33</v>
@@ -10335,15 +10344,15 @@
         <v>558</v>
       </c>
       <c r="J234" s="6">
-        <v>59.94821819466</v>
+        <v>59.948218194660001</v>
       </c>
       <c r="K234" s="3">
         <v>5.85888671875</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>154</v>
@@ -10370,24 +10379,24 @@
         <v>337</v>
       </c>
       <c r="J235" s="6">
-        <v>36.17070865466</v>
+        <v>36.170708654659997</v>
       </c>
       <c r="K235" s="3">
         <v>7.44482421875</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C236" s="3">
-        <v>2.93152451515198</v>
+        <v>2.9315245151519802</v>
       </c>
       <c r="D236" s="4">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E236" s="5">
         <v>4</v>
@@ -10405,13 +10414,13 @@
         <v>535</v>
       </c>
       <c r="J236" s="6">
-        <v>58.9228025646601</v>
+        <v>58.922802564660103</v>
       </c>
       <c r="K236" s="3">
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>247</v>
       </c>
@@ -10419,7 +10428,7 @@
         <v>115</v>
       </c>
       <c r="C237" s="3">
-        <v>2.89533686637878</v>
+        <v>2.8953368663787802</v>
       </c>
       <c r="D237" s="4">
         <v>2.31</v>
@@ -10440,13 +10449,13 @@
         <v>519</v>
       </c>
       <c r="J237" s="6">
-        <v>56.2538356346601</v>
+        <v>56.253835634660099</v>
       </c>
       <c r="K237" s="3">
         <v>6.48095703125</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>21</v>
       </c>
@@ -10454,7 +10463,7 @@
         <v>60</v>
       </c>
       <c r="C238" s="3">
-        <v>2.89066696166992</v>
+        <v>2.8906669616699201</v>
       </c>
       <c r="D238" s="4">
         <v>11.21</v>
@@ -10481,7 +10490,7 @@
         <v>5.22412109375</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>12</v>
       </c>
@@ -10510,21 +10519,21 @@
         <v>427</v>
       </c>
       <c r="J239" s="6">
-        <v>45.65802617466</v>
+        <v>45.658026174660002</v>
       </c>
       <c r="K239" s="3">
         <v>4.88134765625</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C240" s="3">
-        <v>2.85228729248047</v>
+        <v>2.8522872924804701</v>
       </c>
       <c r="D240" s="4">
         <v>5.46</v>
@@ -10545,15 +10554,15 @@
         <v>183</v>
       </c>
       <c r="J240" s="6">
-        <v>21.05515617466</v>
+        <v>21.055156174659999</v>
       </c>
       <c r="K240" s="3">
         <v>5.68115234375</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>151</v>
@@ -10586,9 +10595,9 @@
         <v>8.73388671875</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>139</v>
@@ -10615,21 +10624,21 @@
         <v>202</v>
       </c>
       <c r="J242" s="6">
-        <v>20.68219082466</v>
+        <v>20.682190824660001</v>
       </c>
       <c r="K242" s="3">
         <v>4.88134765625</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C243" s="3">
-        <v>2.8405601978302</v>
+        <v>2.8405601978302002</v>
       </c>
       <c r="D243" s="4">
         <v>3.52</v>
@@ -10650,21 +10659,21 @@
         <v>455</v>
       </c>
       <c r="J243" s="6">
-        <v>50.7811716446601</v>
+        <v>50.781171644660098</v>
       </c>
       <c r="K243" s="3">
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C244" s="3">
-        <v>2.80669951438904</v>
+        <v>2.8066995143890399</v>
       </c>
       <c r="D244" s="4">
         <v>6.25</v>
@@ -10685,13 +10694,13 @@
         <v>176</v>
       </c>
       <c r="J244" s="6">
-        <v>19.23781531466</v>
+        <v>19.237815314660001</v>
       </c>
       <c r="K244" s="3">
         <v>5.57958984375</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>13</v>
       </c>
@@ -10699,7 +10708,7 @@
         <v>72</v>
       </c>
       <c r="C245" s="3">
-        <v>2.80663371086121</v>
+        <v>2.8066337108612101</v>
       </c>
       <c r="D245" s="4">
         <v>4.66</v>
@@ -10720,13 +10729,13 @@
         <v>408</v>
       </c>
       <c r="J245" s="6">
-        <v>44.54723796466</v>
+        <v>44.547237964659999</v>
       </c>
       <c r="K245" s="3">
         <v>8.26513671875</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>232</v>
       </c>
@@ -10734,7 +10743,7 @@
         <v>145</v>
       </c>
       <c r="C246" s="3">
-        <v>2.75482988357544</v>
+        <v>2.7548298835754399</v>
       </c>
       <c r="D246" s="4">
         <v>5.85</v>
@@ -10755,21 +10764,21 @@
         <v>188</v>
       </c>
       <c r="J246" s="6">
-        <v>20.99433410466</v>
+        <v>20.994334104659998</v>
       </c>
       <c r="K246" s="3">
         <v>5.13525390625</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C247" s="3">
-        <v>2.75316429138184</v>
+        <v>2.7531642913818399</v>
       </c>
       <c r="D247" s="4">
         <v>11.76</v>
@@ -10796,7 +10805,7 @@
         <v>4.20849609375</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>269</v>
       </c>
@@ -10804,7 +10813,7 @@
         <v>171</v>
       </c>
       <c r="C248" s="3">
-        <v>2.75041437149048</v>
+        <v>2.7504143714904798</v>
       </c>
       <c r="D248" s="4">
         <v>2.91</v>
@@ -10825,18 +10834,18 @@
         <v>446</v>
       </c>
       <c r="J248" s="6">
-        <v>48.1427614446601</v>
+        <v>48.142761444660103</v>
       </c>
       <c r="K248" s="3">
         <v>6.41748046875</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C249" s="3">
         <v>2.70345234870911</v>
@@ -10866,15 +10875,15 @@
         <v>5.10986328125</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C250" s="3">
-        <v>2.69315266609192</v>
+        <v>2.6931526660919198</v>
       </c>
       <c r="D250" s="4">
         <v>2.37</v>
@@ -10895,18 +10904,18 @@
         <v>887</v>
       </c>
       <c r="J250" s="6">
-        <v>97.7224985146601</v>
+        <v>97.722498514660103</v>
       </c>
       <c r="K250" s="3">
         <v>5.19873046875</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C251" s="3">
         <v>2.68928027153015</v>
@@ -10930,21 +10939,21 @@
         <v>355</v>
       </c>
       <c r="J251" s="6">
-        <v>39.40880146466</v>
+        <v>39.408801464660002</v>
       </c>
       <c r="K251" s="3">
         <v>6.12548828125</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C252" s="3">
-        <v>2.68299865722656</v>
+        <v>2.6829986572265598</v>
       </c>
       <c r="D252" s="4">
         <v>2.68</v>
@@ -10965,21 +10974,21 @@
         <v>523</v>
       </c>
       <c r="J252" s="6">
-        <v>58.34821510466</v>
+        <v>58.348215104659999</v>
       </c>
       <c r="K252" s="3">
         <v>7.63525390625</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C253" s="3">
-        <v>2.6355140209198</v>
+        <v>2.6355140209197998</v>
       </c>
       <c r="D253" s="4">
         <v>14.67</v>
@@ -11000,18 +11009,18 @@
         <v>75</v>
       </c>
       <c r="J253" s="6">
-        <v>8.14118608466</v>
+        <v>8.1411860846599993</v>
       </c>
       <c r="K253" s="3">
         <v>4.88134765625</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C254" s="3">
         <v>2.61231541633606</v>
@@ -11035,21 +11044,21 @@
         <v>468</v>
       </c>
       <c r="J254" s="6">
-        <v>53.89523084466</v>
+        <v>53.895230844659999</v>
       </c>
       <c r="K254" s="3">
         <v>5.46533203125</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C255" s="3">
-        <v>2.60230994224548</v>
+        <v>2.6023099422454798</v>
       </c>
       <c r="D255" s="4">
         <v>2.02</v>
@@ -11070,13 +11079,13 @@
         <v>741</v>
       </c>
       <c r="J255" s="6">
-        <v>82.3870575246601</v>
+        <v>82.387057524660094</v>
       </c>
       <c r="K255" s="3">
         <v>6.06201171875</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>283</v>
       </c>
@@ -11084,7 +11093,7 @@
         <v>106</v>
       </c>
       <c r="C256" s="3">
-        <v>2.60047006607056</v>
+        <v>2.6004700660705602</v>
       </c>
       <c r="D256" s="4">
         <v>12.5</v>
@@ -11111,15 +11120,15 @@
         <v>7.50341796875</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C257" s="3">
-        <v>2.55713844299316</v>
+        <v>2.5571384429931601</v>
       </c>
       <c r="D257" s="4">
         <v>19.66</v>
@@ -11140,13 +11149,13 @@
         <v>117</v>
       </c>
       <c r="J257" s="6">
-        <v>12.29307282466</v>
+        <v>12.293072824659999</v>
       </c>
       <c r="K257" s="3">
         <v>8.32373046875</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>274</v>
       </c>
@@ -11154,7 +11163,7 @@
         <v>199</v>
       </c>
       <c r="C258" s="3">
-        <v>2.54001188278198</v>
+        <v>2.5400118827819802</v>
       </c>
       <c r="D258" s="4">
         <v>6.08</v>
@@ -11175,21 +11184,21 @@
         <v>181</v>
       </c>
       <c r="J258" s="6">
-        <v>20.72349917466</v>
+        <v>20.723499174659999</v>
       </c>
       <c r="K258" s="3">
         <v>6.21435546875</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C259" s="3">
-        <v>2.5026683807373</v>
+        <v>2.5026683807372998</v>
       </c>
       <c r="D259" s="4">
         <v>11.83</v>
@@ -11210,13 +11219,13 @@
         <v>93</v>
       </c>
       <c r="J259" s="6">
-        <v>10.82764968466</v>
+        <v>10.827649684660001</v>
       </c>
       <c r="K259" s="3">
         <v>7.03466796875</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>271</v>
       </c>
@@ -11224,7 +11233,7 @@
         <v>160</v>
       </c>
       <c r="C260" s="3">
-        <v>2.49972653388977</v>
+        <v>2.4997265338897701</v>
       </c>
       <c r="D260" s="4">
         <v>11.35</v>
@@ -11245,21 +11254,21 @@
         <v>141</v>
       </c>
       <c r="J260" s="6">
-        <v>15.68500030466</v>
+        <v>15.685000304660001</v>
       </c>
       <c r="K260" s="3">
         <v>7.59130859375</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C261" s="3">
-        <v>2.43691325187683</v>
+        <v>2.4369132518768302</v>
       </c>
       <c r="D261" s="4">
         <v>3.3</v>
@@ -11286,15 +11295,15 @@
         <v>5.89697265625</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C262" s="3">
-        <v>2.34236240386963</v>
+        <v>2.3423624038696298</v>
       </c>
       <c r="D262" s="4">
         <v>5.94</v>
@@ -11321,9 +11330,9 @@
         <v>5.66845703125</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>144</v>
@@ -11350,21 +11359,21 @@
         <v>67</v>
       </c>
       <c r="J263" s="6">
-        <v>7.27355093466</v>
+        <v>7.2735509346600002</v>
       </c>
       <c r="K263" s="3">
         <v>8.29443359375</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C264" s="3">
-        <v>2.20668339729309</v>
+        <v>2.2066833972930899</v>
       </c>
       <c r="D264" s="4">
         <v>5.73</v>
@@ -11391,15 +11400,15 @@
         <v>5.59228515625</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C265" s="3">
-        <v>2.17071390151978</v>
+        <v>2.1707139015197798</v>
       </c>
       <c r="D265" s="4">
         <v>4.79</v>
@@ -11420,21 +11429,21 @@
         <v>459</v>
       </c>
       <c r="J265" s="6">
-        <v>51.27307776466</v>
+        <v>51.273077764660002</v>
       </c>
       <c r="K265" s="3">
         <v>7.06396484375</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C266" s="3">
-        <v>2.13572645187378</v>
+        <v>2.1357264518737802</v>
       </c>
       <c r="D266" s="4">
         <v>2.81</v>
@@ -11461,7 +11470,7 @@
         <v>10.03759765625</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>10</v>
       </c>
@@ -11469,7 +11478,7 @@
         <v>182</v>
       </c>
       <c r="C267" s="3">
-        <v>2.10422110557556</v>
+        <v>2.1042211055755602</v>
       </c>
       <c r="D267" s="4">
         <v>10.53</v>
@@ -11496,7 +11505,7 @@
         <v>7.28369140625</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>260</v>
       </c>
@@ -11531,18 +11540,18 @@
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C269" s="3">
-        <v>1.89919447898865</v>
+        <v>1.8991944789886499</v>
       </c>
       <c r="D269" s="4">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E269" s="5">
         <v>1</v>
@@ -11566,9 +11575,9 @@
         <v>5.99853515625</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>69</v>
@@ -11595,17 +11604,13 @@
         <v>135</v>
       </c>
       <c r="J270" s="6">
-        <v>15.05349816466</v>
+        <v>15.053498164660001</v>
       </c>
       <c r="K270" s="3">
         <v>7.09326171875</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup/>
-  <headerFooter/>
 </worksheet>
 </file>